--- a/biology/Médecine/Académie_nationale_de_chirurgie/Académie_nationale_de_chirurgie.xlsx
+++ b/biology/Médecine/Académie_nationale_de_chirurgie/Académie_nationale_de_chirurgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_chirurgie</t>
+          <t>Académie_nationale_de_chirurgie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Académie nationale de chirurgie est une société savante française, dont l'objet est la chirurgie. Héritière de l'Académie royale de chirurgie fondée en 1731, elle est la plus ancienne institution chirurgicale française[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Académie nationale de chirurgie est une société savante française, dont l'objet est la chirurgie. Héritière de l'Académie royale de chirurgie fondée en 1731, elle est la plus ancienne institution chirurgicale française.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_chirurgie</t>
+          <t>Académie_nationale_de_chirurgie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Académie nationale de chirurgie est créée le 18 décembre 1731, sous le nom d’Académie royale de chirurgie, par Georges Mareschal, premier chirurgien de Louis XV et par François La Peyronie, son successeur. Dissoute à la Révolution, elle renaît le 27 août 1843, à l’initiative de plusieurs chirurgiens (Bérard, Monod[2], Alphonse Robert, Michon, Guersant, Vidal, Danyau, Denonvilliers, Malgaigne, Chassaignac, Maisonneuve, Nélaton, Marjolin), d'abord sous le nom de Société de chirurgie de Paris, puis elle prend le nom de Société nationale de chirurgie en 1875. En 1935, elle prend le nom d’Académie de chirurgie, puis adopte son nom actuel en 1997.
-Liste des présidents[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Académie nationale de chirurgie est créée le 18 décembre 1731, sous le nom d’Académie royale de chirurgie, par Georges Mareschal, premier chirurgien de Louis XV et par François La Peyronie, son successeur. Dissoute à la Révolution, elle renaît le 27 août 1843, à l’initiative de plusieurs chirurgiens (Bérard, Monod, Alphonse Robert, Michon, Guersant, Vidal, Danyau, Denonvilliers, Malgaigne, Chassaignac, Maisonneuve, Nélaton, Marjolin), d'abord sous le nom de Société de chirurgie de Paris, puis elle prend le nom de Société nationale de chirurgie en 1875. En 1935, elle prend le nom d’Académie de chirurgie, puis adopte son nom actuel en 1997.
+Liste des présidents
 1844 : A. Bérard
 1845 : Michon
 1846 : Monod, père
@@ -699,7 +713,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Acad%C3%A9mie_nationale_de_chirurgie</t>
+          <t>Académie_nationale_de_chirurgie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -719,11 +733,15 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Responsabilité morale en tout ce qui concerne la chirurgie
-Gardien de son histoire
+          <t>Responsabilité morale en tout ce qui concerne la chirurgie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gardien de son histoire
 Témoin de son évolution
-Garant de son éthique.
-Évaluation prudente et rigoureuse du développement des aspects techniques de l’art chirurgical et de leurs changements</t>
+Garant de son éthique.</t>
         </is>
       </c>
     </row>
